--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8911683333333333</v>
+        <v>0.2035556666666667</v>
       </c>
       <c r="H2">
-        <v>2.673505</v>
+        <v>0.6106670000000001</v>
       </c>
       <c r="I2">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="J2">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N2">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O2">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P2">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q2">
-        <v>131.3772260038372</v>
+        <v>27.15333102108656</v>
       </c>
       <c r="R2">
-        <v>1182.395034034535</v>
+        <v>244.379979189779</v>
       </c>
       <c r="S2">
-        <v>0.02560877670307755</v>
+        <v>0.005524546554641585</v>
       </c>
       <c r="T2">
-        <v>0.02560877670307756</v>
+        <v>0.005524546554641586</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8911683333333333</v>
+        <v>0.2035556666666667</v>
       </c>
       <c r="H3">
-        <v>2.673505</v>
+        <v>0.6106670000000001</v>
       </c>
       <c r="I3">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="J3">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N3">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O3">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P3">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q3">
-        <v>2.086036437702778</v>
+        <v>0.4764807297172223</v>
       </c>
       <c r="R3">
-        <v>18.774327939325</v>
+        <v>4.288326567455001</v>
       </c>
       <c r="S3">
-        <v>0.0004066217787704963</v>
+        <v>9.69435378542759E-05</v>
       </c>
       <c r="T3">
-        <v>0.0004066217787704963</v>
+        <v>9.694353785427592E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8911683333333333</v>
+        <v>0.2035556666666667</v>
       </c>
       <c r="H4">
-        <v>2.673505</v>
+        <v>0.6106670000000001</v>
       </c>
       <c r="I4">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="J4">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N4">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O4">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P4">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q4">
-        <v>4.713864901833889</v>
+        <v>2.592307470125334</v>
       </c>
       <c r="R4">
-        <v>42.424784116505</v>
+        <v>23.330767231128</v>
       </c>
       <c r="S4">
-        <v>0.0009188526607801327</v>
+        <v>0.0005274241783275502</v>
       </c>
       <c r="T4">
-        <v>0.0009188526607801329</v>
+        <v>0.0005274241783275503</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>73.07909699999999</v>
       </c>
       <c r="I5">
-        <v>0.7362360466408275</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="J5">
-        <v>0.7362360466408276</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N5">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O5">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P5">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q5">
-        <v>3591.139363017964</v>
+        <v>3249.464784511187</v>
       </c>
       <c r="R5">
-        <v>32320.25426716168</v>
+        <v>29245.18306060068</v>
       </c>
       <c r="S5">
-        <v>0.7000047790206282</v>
+        <v>0.661127707159005</v>
       </c>
       <c r="T5">
-        <v>0.7000047790206283</v>
+        <v>0.6611277071590052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>73.07909699999999</v>
       </c>
       <c r="I6">
-        <v>0.7362360466408275</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="J6">
-        <v>0.7362360466408276</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N6">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O6">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P6">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q6">
         <v>57.02089922271166</v>
       </c>
       <c r="R6">
-        <v>513.1880930044049</v>
+        <v>513.188093004405</v>
       </c>
       <c r="S6">
-        <v>0.01111482956384283</v>
+        <v>0.01160132479137697</v>
       </c>
       <c r="T6">
-        <v>0.01111482956384283</v>
+        <v>0.01160132479137697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>73.07909699999999</v>
       </c>
       <c r="I7">
-        <v>0.7362360466408275</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="J7">
-        <v>0.7362360466408276</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N7">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O7">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P7">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q7">
-        <v>128.8514479703663</v>
+        <v>310.223884806472</v>
       </c>
       <c r="R7">
-        <v>1159.663031733297</v>
+        <v>2792.014963258248</v>
       </c>
       <c r="S7">
-        <v>0.0251164380563565</v>
+        <v>0.06311734986194494</v>
       </c>
       <c r="T7">
-        <v>0.02511643805635651</v>
+        <v>0.06311734986194495</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.835938333333334</v>
+        <v>8.541072</v>
       </c>
       <c r="H8">
-        <v>23.507815</v>
+        <v>25.623216</v>
       </c>
       <c r="I8">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="J8">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N8">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O8">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P8">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q8">
-        <v>1155.184495301634</v>
+        <v>1139.337258887088</v>
       </c>
       <c r="R8">
-        <v>10396.6604577147</v>
+        <v>10254.03532998379</v>
       </c>
       <c r="S8">
-        <v>0.2251749613755191</v>
+        <v>0.2318066141966688</v>
       </c>
       <c r="T8">
-        <v>0.2251749613755191</v>
+        <v>0.2318066141966688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.835938333333334</v>
+        <v>8.541072</v>
       </c>
       <c r="H9">
-        <v>23.507815</v>
+        <v>25.623216</v>
       </c>
       <c r="I9">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="J9">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N9">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O9">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P9">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q9">
-        <v>18.34227303138611</v>
+        <v>19.99284169176</v>
       </c>
       <c r="R9">
-        <v>165.080457282475</v>
+        <v>179.93557522584</v>
       </c>
       <c r="S9">
-        <v>0.003575377472758703</v>
+        <v>0.004067691901223232</v>
       </c>
       <c r="T9">
-        <v>0.003575377472758703</v>
+        <v>0.004067691901223233</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.835938333333334</v>
+        <v>8.541072</v>
       </c>
       <c r="H10">
-        <v>23.507815</v>
+        <v>25.623216</v>
       </c>
       <c r="I10">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="J10">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N10">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O10">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P10">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q10">
-        <v>41.44845962409056</v>
+        <v>108.771645177216</v>
       </c>
       <c r="R10">
-        <v>373.036136616815</v>
+        <v>978.944806594944</v>
       </c>
       <c r="S10">
-        <v>0.008079363368266422</v>
+        <v>0.02213039781895753</v>
       </c>
       <c r="T10">
-        <v>0.008079363368266423</v>
+        <v>0.02213039781895753</v>
       </c>
     </row>
   </sheetData>
